--- a/Cleaned Data XLS format/National_Industry_Mean_Salary.xlsx
+++ b/Cleaned Data XLS format/National_Industry_Mean_Salary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boston\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinsloboda/OnTheUpAndUp/Cleaned Data XLS format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712E9D6-A39C-4264-85A2-3BBC3DCCDB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28678831-7408-FF4D-AAD5-CF189E33BA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="255" windowWidth="16155" windowHeight="13830" xr2:uid="{5FD9031D-D924-4089-9137-A3422F34ED0F}"/>
+    <workbookView xWindow="-29120" yWindow="780" windowWidth="23460" windowHeight="14860" xr2:uid="{5FD9031D-D924-4089-9137-A3422F34ED0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>HOUSEHOLD DATA</t>
-  </si>
-  <si>
-    <t>ANNUAL AVERAGES</t>
-  </si>
-  <si>
-    <t>39. Median weekly earnings of full-time wage and salary workers by detailed occupation and sex [Numbers in thousands]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Total</t>
   </si>
@@ -56,15 +47,12 @@
   <si>
     <t>Year</t>
   </si>
-  <si>
-    <t>https://www.bls.gov/cps/cpsaat39.htm</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,14 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -625,510 +607,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D422899-B58E-4018-8013-D7067E88DC31}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2019</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B4" s="5">
         <v>629</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C4" s="10">
         <v>1984</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D4" s="5">
         <v>439</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E4" s="6">
         <v>2019</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F4" s="9">
         <v>190</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G4" s="6">
         <v>1892</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
         <v>2018</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B5" s="5">
         <v>601</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C5" s="10">
         <v>1877</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D5" s="5">
         <v>448</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E5" s="6">
         <v>1920</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F5" s="9">
         <v>153</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G5" s="6">
         <v>1727</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>2017</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B6" s="5">
         <v>594</v>
       </c>
+      <c r="C6" s="10">
+        <v>1843</v>
+      </c>
+      <c r="D6" s="5">
+        <v>428</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1897</v>
+      </c>
+      <c r="F6" s="9">
+        <v>165</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="5">
+        <v>592</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1738</v>
+      </c>
+      <c r="D7" s="5">
+        <v>443</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1756</v>
+      </c>
+      <c r="F7" s="9">
+        <v>150</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5">
+        <v>636</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1728</v>
+      </c>
+      <c r="D8" s="5">
+        <v>466</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1817</v>
+      </c>
+      <c r="F8" s="9">
+        <v>169</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="5">
+        <v>623</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1730</v>
+      </c>
+      <c r="D9" s="5">
+        <v>453</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1763</v>
+      </c>
+      <c r="F9" s="9">
+        <v>169</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="5">
+        <v>570</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1728</v>
+      </c>
+      <c r="D10" s="5">
+        <v>407</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1769</v>
+      </c>
+      <c r="F10" s="9">
+        <v>163</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="5">
+        <v>568</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1672</v>
+      </c>
+      <c r="D11" s="5">
+        <v>423</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1740</v>
+      </c>
+      <c r="F11" s="9">
+        <v>145</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="5">
+        <v>530</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1579</v>
+      </c>
+      <c r="D12" s="5">
+        <v>392</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1595</v>
+      </c>
+      <c r="F12" s="9">
+        <v>138</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="22">
+        <v>505</v>
+      </c>
       <c r="C13" s="12">
-        <v>1843</v>
-      </c>
-      <c r="D13" s="7">
-        <v>428</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1897</v>
+        <v>1600</v>
+      </c>
+      <c r="D13" s="3">
+        <v>353</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1729</v>
       </c>
       <c r="F13" s="11">
-        <v>165</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="7">
-        <v>592</v>
+        <v>152</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="24">
+        <v>441</v>
       </c>
       <c r="C14" s="12">
-        <v>1738</v>
-      </c>
-      <c r="D14" s="7">
-        <v>443</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1756</v>
+        <v>1726</v>
+      </c>
+      <c r="D14" s="3">
+        <v>319</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1788</v>
       </c>
       <c r="F14" s="11">
-        <v>150</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="7">
-        <v>636</v>
+        <v>122</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="24">
+        <v>431</v>
       </c>
       <c r="C15" s="12">
-        <v>1728</v>
-      </c>
-      <c r="D15" s="7">
-        <v>466</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1817</v>
+        <v>1576</v>
+      </c>
+      <c r="D15" s="3">
+        <v>311</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1641</v>
       </c>
       <c r="F15" s="11">
-        <v>169</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="7">
-        <v>623</v>
+        <v>120</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="24">
+        <v>444</v>
       </c>
       <c r="C16" s="12">
-        <v>1730</v>
-      </c>
-      <c r="D16" s="7">
-        <v>453</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1763</v>
+        <v>1553</v>
+      </c>
+      <c r="D16" s="3">
+        <v>321</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1596</v>
       </c>
       <c r="F16" s="11">
-        <v>169</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="7">
-        <v>570</v>
+        <v>123</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="24">
+        <v>380</v>
       </c>
       <c r="C17" s="12">
-        <v>1728</v>
-      </c>
-      <c r="D17" s="7">
-        <v>407</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1769</v>
+        <v>1435</v>
+      </c>
+      <c r="D17" s="3">
+        <v>274</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1492</v>
       </c>
       <c r="F17" s="11">
-        <v>163</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17">
-        <v>2012</v>
-      </c>
-      <c r="B18" s="7">
-        <v>568</v>
+        <v>106</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="24">
+        <v>326</v>
       </c>
       <c r="C18" s="12">
-        <v>1672</v>
-      </c>
-      <c r="D18" s="7">
-        <v>423</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1740</v>
+        <v>1428</v>
+      </c>
+      <c r="D18" s="3">
+        <v>227</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1540</v>
       </c>
       <c r="F18" s="11">
-        <v>145</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B19" s="7">
-        <v>530</v>
+        <v>100</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="24">
+        <v>325</v>
       </c>
       <c r="C19" s="12">
-        <v>1579</v>
-      </c>
-      <c r="D19" s="7">
-        <v>392</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1595</v>
+        <v>1439</v>
+      </c>
+      <c r="D19" s="3">
+        <v>228</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1547</v>
       </c>
       <c r="F19" s="11">
-        <v>138</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B20" s="24">
-        <v>505</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1600</v>
-      </c>
-      <c r="D20" s="5">
-        <v>353</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1729</v>
-      </c>
-      <c r="F20" s="13">
-        <v>152</v>
-      </c>
-      <c r="G20" s="25">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17">
-        <v>2009</v>
-      </c>
-      <c r="B21" s="26">
-        <v>441</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1726</v>
-      </c>
-      <c r="D21" s="5">
-        <v>319</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1788</v>
-      </c>
-      <c r="F21" s="13">
-        <v>122</v>
-      </c>
-      <c r="G21" s="25">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="17">
-        <v>2008</v>
-      </c>
-      <c r="B22" s="26">
-        <v>431</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1576</v>
-      </c>
-      <c r="D22" s="5">
-        <v>311</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1641</v>
-      </c>
-      <c r="F22" s="13">
-        <v>120</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="17">
-        <v>2007</v>
-      </c>
-      <c r="B23" s="26">
-        <v>444</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1553</v>
-      </c>
-      <c r="D23" s="5">
-        <v>321</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1596</v>
-      </c>
-      <c r="F23" s="13">
-        <v>123</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="17">
-        <v>2006</v>
-      </c>
-      <c r="B24" s="26">
-        <v>380</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1435</v>
-      </c>
-      <c r="D24" s="5">
-        <v>274</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1492</v>
-      </c>
-      <c r="F24" s="13">
-        <v>106</v>
-      </c>
-      <c r="G24" s="25">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="17">
-        <v>2005</v>
-      </c>
-      <c r="B25" s="26">
-        <v>326</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1428</v>
-      </c>
-      <c r="D25" s="5">
-        <v>227</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1540</v>
-      </c>
-      <c r="F25" s="13">
-        <v>100</v>
-      </c>
-      <c r="G25" s="25">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17">
-        <v>2004</v>
-      </c>
-      <c r="B26" s="26">
-        <v>325</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1439</v>
-      </c>
-      <c r="D26" s="5">
-        <v>228</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1547</v>
-      </c>
-      <c r="F26" s="13">
         <v>96</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G19" s="23">
         <v>1228</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>2003</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B20" s="25">
         <v>331</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C20" s="26">
         <v>1401</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D20" s="7">
         <v>233</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E20" s="8">
         <v>1437</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F20" s="27">
         <v>99</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G20" s="28">
         <v>1280</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Cleaned Data XLS format/National_Industry_Mean_Salary.xlsx
+++ b/Cleaned Data XLS format/National_Industry_Mean_Salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinsloboda/OnTheUpAndUp/Cleaned Data XLS format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28678831-7408-FF4D-AAD5-CF189E33BA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FEDA2C-6756-1244-AA40-8BAE9E4AB7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29120" yWindow="780" windowWidth="23460" windowHeight="14860" xr2:uid="{5FD9031D-D924-4089-9137-A3422F34ED0F}"/>
   </bookViews>
@@ -25,27 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Total</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Men</t>
+    <t>Number of workers (Total)</t>
   </si>
   <si>
-    <t>Women</t>
+    <t>Median weekly earnings (Total)</t>
   </si>
   <si>
-    <t>Number of workers</t>
+    <t>Number of workers (Men)</t>
   </si>
   <si>
-    <t>Median weekly earnings</t>
+    <t>Median weekly earnings (Men)</t>
   </si>
   <si>
-    <t>Occupation: Computer and information systems managers</t>
+    <t>Number of workers (Women)</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Median weekly earnings (Women)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,48 +170,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -280,18 +243,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D422899-B58E-4018-8013-D7067E88DC31}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,464 +574,441 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="5">
+        <v>629</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1984</v>
+      </c>
+      <c r="D3" s="5">
+        <v>439</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="9">
+        <v>190</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1892</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2019</v>
+      <c r="A4" s="15">
+        <v>2018</v>
       </c>
       <c r="B4" s="5">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="C4" s="10">
-        <v>1984</v>
+        <v>1877</v>
       </c>
       <c r="D4" s="5">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E4" s="6">
-        <v>2019</v>
+        <v>1920</v>
       </c>
       <c r="F4" s="9">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="G4" s="6">
-        <v>1892</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="5">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C5" s="10">
-        <v>1877</v>
+        <v>1843</v>
       </c>
       <c r="D5" s="5">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="E5" s="6">
-        <v>1920</v>
+        <v>1897</v>
       </c>
       <c r="F5" s="9">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G5" s="6">
-        <v>1727</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="5">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C6" s="10">
-        <v>1843</v>
+        <v>1738</v>
       </c>
       <c r="D6" s="5">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="E6" s="6">
-        <v>1897</v>
+        <v>1756</v>
       </c>
       <c r="F6" s="9">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G6" s="6">
-        <v>1629</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B7" s="5">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="C7" s="10">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="D7" s="5">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="E7" s="6">
-        <v>1756</v>
+        <v>1817</v>
       </c>
       <c r="F7" s="9">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G7" s="6">
-        <v>1680</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B8" s="5">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C8" s="10">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D8" s="5">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E8" s="6">
-        <v>1817</v>
+        <v>1763</v>
       </c>
       <c r="F8" s="9">
         <v>169</v>
       </c>
       <c r="G8" s="6">
-        <v>1563</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B9" s="5">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="C9" s="10">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D9" s="5">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="E9" s="6">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="F9" s="9">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G9" s="6">
-        <v>1529</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B10" s="5">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C10" s="10">
-        <v>1728</v>
+        <v>1672</v>
       </c>
       <c r="D10" s="5">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E10" s="6">
-        <v>1769</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="9">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G10" s="6">
-        <v>1549</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B11" s="5">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="C11" s="10">
-        <v>1672</v>
+        <v>1579</v>
       </c>
       <c r="D11" s="5">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="E11" s="6">
-        <v>1740</v>
+        <v>1595</v>
       </c>
       <c r="F11" s="9">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6">
-        <v>1527</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="5">
-        <v>530</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1579</v>
-      </c>
-      <c r="D12" s="5">
-        <v>392</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1595</v>
-      </c>
-      <c r="F12" s="9">
-        <v>138</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="22">
+        <v>505</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>353</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1729</v>
+      </c>
+      <c r="F12" s="11">
+        <v>152</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="22">
-        <v>505</v>
+        <v>2009</v>
+      </c>
+      <c r="B13" s="24">
+        <v>441</v>
       </c>
       <c r="C13" s="12">
-        <v>1600</v>
+        <v>1726</v>
       </c>
       <c r="D13" s="3">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E13" s="4">
-        <v>1729</v>
+        <v>1788</v>
       </c>
       <c r="F13" s="11">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G13" s="23">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B14" s="24">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C14" s="12">
-        <v>1726</v>
+        <v>1576</v>
       </c>
       <c r="D14" s="3">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E14" s="4">
-        <v>1788</v>
+        <v>1641</v>
       </c>
       <c r="F14" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" s="23">
-        <v>1411</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B15" s="24">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C15" s="12">
-        <v>1576</v>
+        <v>1553</v>
       </c>
       <c r="D15" s="3">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E15" s="4">
-        <v>1641</v>
+        <v>1596</v>
       </c>
       <c r="F15" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G15" s="23">
-        <v>1260</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="24">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="C16" s="12">
-        <v>1553</v>
+        <v>1435</v>
       </c>
       <c r="D16" s="3">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="E16" s="4">
-        <v>1596</v>
+        <v>1492</v>
       </c>
       <c r="F16" s="11">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G16" s="23">
-        <v>1363</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="24">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="C17" s="12">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="D17" s="3">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="E17" s="4">
-        <v>1492</v>
+        <v>1540</v>
       </c>
       <c r="F17" s="11">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G17" s="23">
-        <v>1300</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B18" s="24">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="12">
-        <v>1428</v>
+        <v>1439</v>
       </c>
       <c r="D18" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" s="4">
-        <v>1540</v>
+        <v>1547</v>
       </c>
       <c r="F18" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G18" s="23">
-        <v>1094</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
-        <v>2004</v>
-      </c>
-      <c r="B19" s="24">
-        <v>325</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1439</v>
-      </c>
-      <c r="D19" s="3">
-        <v>228</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1547</v>
-      </c>
-      <c r="F19" s="11">
-        <v>96</v>
-      </c>
-      <c r="G19" s="23">
-        <v>1228</v>
+        <v>2003</v>
+      </c>
+      <c r="B19" s="25">
+        <v>331</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1401</v>
+      </c>
+      <c r="D19" s="7">
+        <v>233</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1437</v>
+      </c>
+      <c r="F19" s="27">
+        <v>99</v>
+      </c>
+      <c r="G19" s="28">
+        <v>1280</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B20" s="25">
-        <v>331</v>
-      </c>
-      <c r="C20" s="26">
-        <v>1401</v>
-      </c>
-      <c r="D20" s="7">
-        <v>233</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1437</v>
-      </c>
-      <c r="F20" s="27">
-        <v>99</v>
-      </c>
-      <c r="G20" s="28">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
